--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_138.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_138.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,650 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>isophonics_4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1168831168831169</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['G:7', 'C:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.54, 98.02)]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.06, 17.506)]</t>
+          <t>[('0:02:36.152000', '0:02:39.022000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.620000', '0:00:33.760000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G#:maj/D#', 'D#:7', 'G#:maj'], ['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_99</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06580188679245283</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['A', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(112.78, 120.72), (19.44, 28.3)]</t>
+          <t>[['G/5', 'D', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(92.26, 99.02), (124.3, 129.24)]</t>
+          <t>[('0:00:21.763469', '0:00:25.385782')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:21.159750', '0:00:26.895079')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3106060606060606</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B'], ['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(13.72, 18.34)]</t>
+          <t>[['Ab', 'Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.38, 16.32)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:03:32.600000', '0:03:44.400000'), ('0:00:16.560000', '0:00:37.820000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:06.930000', '0:01:14.440000'), ('0:01:20.080000', '0:01:27.620000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07435740514075886</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'D:maj', 'G:maj'], ['D:maj', 'A/3', 'D/7']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1261904761904762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G'], ['G', 'D', 'G']]</t>
+          <t>[['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.446, 16.277), (59.78, 64.294)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.675377, 23.261318), (0.421247, 3.083177)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5789473684210527</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(57.7, 65.36)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:06.357029', '0:00:23.632675')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66)]</t>
+          <t>[('0:01:00.760000', '0:01:04.360000'), ('0:00:07.400000', '0:00:12.020000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:00.040000', '0:01:07.080000'), ('0:01:28.760000', '0:01:38.300000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.45</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.02, 68.98)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1366071428571429</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07414772727272727</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.366281, 7.262606)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(25.807392, 30.753242)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08892763731473409</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:32.520000', '0:00:47.400000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:35.260000', '0:01:53.640000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1225</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C/5', 'D/3', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(33.466326, 38.923015)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(97.77399, 102.557301)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(28.450816, 36.229501)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.17907, 25.606371)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1480769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.410362, 24.856984), (2.612267, 17.443474)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(55.4, 63.68), (16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.42, 22.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.851927, 16.810929)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
